--- a/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
+++ b/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2970"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Company" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">company name </t>
   </si>
@@ -45,6 +44,12 @@
   </si>
   <si>
     <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>pune</t>
   </si>
 </sst>
 </file>
@@ -383,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,7 +403,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +419,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -430,6 +438,9 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
+++ b/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
@@ -46,10 +46,10 @@
     <t>Rio de Janeiro</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>pune</t>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>countryN</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -440,7 +440,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
+++ b/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2970"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
+    <sheet name="Paygroup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">company name </t>
   </si>
@@ -50,6 +51,18 @@
   </si>
   <si>
     <t>countryN</t>
+  </si>
+  <si>
+    <t>paygroupname</t>
+  </si>
+  <si>
+    <t>paygrpcountry</t>
+  </si>
+  <si>
+    <t>paygrplocation</t>
+  </si>
+  <si>
+    <t>sydney</t>
   </si>
 </sst>
 </file>
@@ -390,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,6 +414,7 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,4 +461,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
+++ b/Payroll360/src/main/java/com/sca/resources/Testdata1..xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Paygroup" sheetId="2" r:id="rId2"/>
+    <sheet name="CompanyUser" sheetId="3" r:id="rId3"/>
+    <sheet name="CalenderSetup" sheetId="4" r:id="rId4"/>
+    <sheet name="Employee" sheetId="5" r:id="rId5"/>
+    <sheet name="GlobalPaygroup" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">company name </t>
   </si>
@@ -63,13 +67,65 @@
   </si>
   <si>
     <t>sydney</t>
+  </si>
+  <si>
+    <t>companyusername</t>
+  </si>
+  <si>
+    <t>companyuserrole</t>
+  </si>
+  <si>
+    <t>GU PY360 Manager</t>
+  </si>
+  <si>
+    <t>Prasad kusundal</t>
+  </si>
+  <si>
+    <t>Automation2022</t>
+  </si>
+  <si>
+    <t>PayPeriodName</t>
+  </si>
+  <si>
+    <t>PayDate</t>
+  </si>
+  <si>
+    <t>PPDueDate</t>
+  </si>
+  <si>
+    <t>CADueDate</t>
+  </si>
+  <si>
+    <t>PFDueDate</t>
+  </si>
+  <si>
+    <t>John Andrews</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>GU201</t>
+  </si>
+  <si>
+    <t>Omnipresentchild</t>
+  </si>
+  <si>
+    <t>P.kcorporation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +138,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +166,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15"/>
@@ -486,7 +564,180 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44712</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44693</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44695</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
